--- a/Example4_2020EntryLocations/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/Example4_2020EntryLocations/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="76">
   <si>
     <t>Athreya, Advait</t>
   </si>
@@ -83,172 +83,172 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Wodarz</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Swarup</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Rowland Hall 240 tel 1800DONTPHONEME</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina Lee</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Anteater Building 1234 tel blahblabhal</t>
+  </si>
+  <si>
+    <t>Corrette, Jack</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Mortazavi</t>
+  </si>
+  <si>
     <t>Jun Allard</t>
   </si>
   <si>
-    <t>Jin Yu</t>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Wunderlich</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
   </si>
   <si>
     <t>Knut Solna</t>
   </si>
   <si>
-    <t>Wodarz</t>
+    <t>Degen, Alexandra Maria</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Schilling</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Ranz</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Esquivel, Emmanuel</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim Ohairwe</t>
+  </si>
+  <si>
+    <t>Evensen, Claire Elizabeth</t>
+  </si>
+  <si>
+    <t>Siryaporn</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Herat, Samantha</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Hussein, Amina Omar</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Kirsher, Douglas Yuen</t>
   </si>
   <si>
     <t>Grace Yuh Chwen Lee</t>
   </si>
   <si>
-    <t>Swarup</t>
-  </si>
-  <si>
-    <t>Anteater Building 1234 tel blahblabhal</t>
-  </si>
-  <si>
-    <t>Rowland Hall 240 tel 1800DONTPHONEME</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina Lee</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Corrette, Jack</t>
-  </si>
-  <si>
-    <t>Schilling</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Degen, Alexandra Maria</t>
-  </si>
-  <si>
-    <t>Siryaporn</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
+    <t>Lee, Beoung Hun</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen Tran Thao</t>
   </si>
   <si>
     <t>Whiteson</t>
   </si>
   <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Esquivel, Emmanuel</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim Ohairwe</t>
-  </si>
-  <si>
-    <t>Evensen, Claire Elizabeth</t>
-  </si>
-  <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Herat, Samantha</t>
-  </si>
-  <si>
-    <t>Hussein, Amina Omar</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi</t>
-  </si>
-  <si>
-    <t>Kirsher, Douglas Yuen</t>
-  </si>
-  <si>
-    <t>Lee, Beoung Hun</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen Tran Thao</t>
-  </si>
-  <si>
     <t>Shen, Jiayi</t>
   </si>
   <si>
     <t>Smith, Sarah Taylor</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Wunderlich</t>
   </si>
   <si>
     <t>Sousa, Rachel Sylvia</t>
@@ -649,13 +649,16 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -663,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -671,7 +674,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -681,16 +687,16 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -698,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -709,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -720,10 +726,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -731,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -742,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -750,10 +753,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -794,10 +794,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -805,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -816,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -832,10 +832,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -843,10 +840,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -854,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -876,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -884,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -892,7 +889,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -925,10 +925,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -936,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -947,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -958,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -969,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -977,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -985,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -996,7 +993,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1004,7 +1004,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1012,10 +1015,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1023,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1031,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1064,7 +1067,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1072,10 +1078,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1085,16 +1091,19 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1102,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1113,7 +1122,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1121,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1132,10 +1144,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1145,16 +1157,13 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1162,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1170,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1203,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1213,19 +1222,16 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1233,7 +1239,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1241,7 +1250,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1249,10 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1260,7 +1269,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1268,10 +1280,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1279,10 +1288,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1290,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1301,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1309,7 +1315,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1340,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1342,7 +1351,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1350,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1358,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1369,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1380,10 +1392,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1391,10 +1403,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1402,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1413,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1421,10 +1430,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1432,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1440,10 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1451,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1479,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1484,10 +1490,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1495,7 +1498,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1503,10 +1509,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1514,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1525,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1533,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1541,10 +1544,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1552,7 +1552,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1560,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1571,10 +1574,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1582,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1590,7 +1593,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1618,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1623,10 +1629,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1634,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1645,10 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1656,10 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1667,7 +1664,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1675,10 +1675,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1686,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1694,7 +1691,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1702,7 +1702,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1710,10 +1713,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1721,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1729,7 +1732,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1754,7 +1757,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1765,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1776,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1784,10 +1787,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1795,10 +1795,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1806,10 +1806,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1817,7 +1814,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1836,7 +1836,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1844,10 +1847,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1855,10 +1858,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1907,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1915,10 +1915,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1926,10 +1923,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1937,7 +1934,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1956,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1964,10 +1964,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1975,10 +1972,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1986,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1994,7 +1991,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2010,10 +2010,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2035,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2076,10 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2087,7 +2084,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2103,10 +2103,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2122,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2141,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2185,7 +2185,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2193,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2204,10 +2207,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2252,13 +2252,16 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2269,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2280,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2288,10 +2291,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2316,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2324,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2332,7 +2335,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2340,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2351,10 +2357,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2362,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -2373,7 +2376,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2381,10 +2387,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2392,10 +2398,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2403,7 +2406,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2411,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2419,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2428,9 +2434,6 @@
       </c>
       <c r="B13" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2463,10 +2466,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2474,10 +2477,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2485,7 +2485,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2493,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2504,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2512,7 +2515,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2520,10 +2526,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2531,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2542,10 +2548,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2553,7 +2559,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2561,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2569,10 +2578,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2613,7 +2619,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2621,7 +2630,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2629,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2640,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2648,10 +2660,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2659,10 +2668,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2670,10 +2676,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2681,7 +2684,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2689,10 +2695,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2700,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2708,7 +2714,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2744,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2754,13 +2760,16 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2771,10 +2780,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2782,10 +2791,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2793,10 +2802,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2804,7 +2810,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2812,10 +2821,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2823,10 +2829,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2834,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2842,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2850,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2889,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2891,10 +2900,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2902,10 +2908,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2913,10 +2919,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2924,10 +2930,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2935,7 +2938,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2943,10 +2946,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2965,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2976,7 +2976,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2984,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2992,7 +2995,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3033,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3041,10 +3044,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3052,10 +3055,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3063,10 +3063,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3074,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3085,7 +3085,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3093,7 +3096,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3101,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -3112,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3120,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3128,10 +3134,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3164,10 +3167,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3175,10 +3178,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3186,10 +3186,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3197,7 +3194,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3205,10 +3205,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3216,10 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3227,7 +3221,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3238,10 +3232,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3249,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -3260,10 +3254,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3271,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3279,10 +3270,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3295,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3315,10 +3306,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3337,7 +3328,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3345,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3353,10 +3347,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3364,7 +3355,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3375,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3383,10 +3377,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3397,7 +3388,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3405,7 +3396,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -3416,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3424,10 +3415,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3440,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3460,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3468,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3479,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -3490,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -3501,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -3512,10 +3503,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3523,7 +3514,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3531,10 +3525,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3542,10 +3533,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3553,10 +3541,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3564,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3572,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -3597,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3608,10 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3619,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3627,10 +3612,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3638,10 +3623,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3649,10 +3631,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3660,7 +3642,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3668,10 +3653,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3679,7 +3664,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3687,7 +3675,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3695,10 +3686,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3706,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3714,7 +3705,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3730,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3747,10 +3741,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3758,7 +3749,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3766,7 +3760,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3774,10 +3771,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3785,7 +3782,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3793,10 +3793,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3804,10 +3801,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3815,10 +3809,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3826,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3834,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -3845,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3853,7 +3847,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3886,10 +3880,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3897,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3905,7 +3899,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3913,7 +3910,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -3940,10 +3940,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3951,10 +3951,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3962,10 +3962,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3973,7 +3970,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3981,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3989,10 +3989,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -4036,10 +4036,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4047,10 +4044,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4058,7 +4052,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4066,7 +4063,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4074,7 +4074,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4082,10 +4085,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4093,10 +4096,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4104,7 +4107,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4112,10 +4115,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4131,7 +4131,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4156,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4164,10 +4167,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4175,7 +4178,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4183,10 +4189,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4194,10 +4200,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4205,7 +4208,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4213,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4221,7 +4227,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4229,10 +4238,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4240,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4251,10 +4257,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4262,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4270,10 +4276,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Example4_2020EntryLocations/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/Example4_2020EntryLocations/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -83,175 +83,175 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Schilling</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>Rowland Hall 240 tel 1800DONTPHONEME</t>
+  </si>
+  <si>
+    <t>Anteater Building 1234 tel blahblabhal</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina Lee</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Corrette, Jack</t>
+  </si>
+  <si>
+    <t>Ranz</t>
+  </si>
+  <si>
+    <t>Swarup</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Mortazavi</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Degen, Alexandra Maria</t>
+  </si>
+  <si>
+    <t>Wunderlich</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
     <t>Wodarz</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Swarup</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Rowland Hall 240 tel 1800DONTPHONEME</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina Lee</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Esquivel, Emmanuel</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim Ohairwe</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Evensen, Claire Elizabeth</t>
   </si>
   <si>
     <t>Brody</t>
   </si>
   <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Anteater Building 1234 tel blahblabhal</t>
-  </si>
-  <si>
-    <t>Corrette, Jack</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Siryaporn</t>
+  </si>
+  <si>
+    <t>Herat, Samantha</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
   </si>
   <si>
     <t>Tim Downing</t>
   </si>
   <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Wunderlich</t>
+    <t>Hussein, Amina Omar</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi</t>
+  </si>
+  <si>
+    <t>Kirsher, Douglas Yuen</t>
+  </si>
+  <si>
+    <t>Lee, Beoung Hun</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen Tran Thao</t>
   </si>
   <si>
     <t>Chang Liu</t>
   </si>
   <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Degen, Alexandra Maria</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Schilling</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Esquivel, Emmanuel</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim Ohairwe</t>
-  </si>
-  <si>
-    <t>Evensen, Claire Elizabeth</t>
-  </si>
-  <si>
-    <t>Siryaporn</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Herat, Samantha</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
+    <t>Shen, Jiayi</t>
+  </si>
+  <si>
+    <t>Smith, Sarah Taylor</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel Sylvia</t>
+  </si>
+  <si>
+    <t>Whiteson</t>
   </si>
   <si>
     <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Hussein, Amina Omar</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Kirsher, Douglas Yuen</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Lee, Beoung Hun</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen Tran Thao</t>
-  </si>
-  <si>
-    <t>Whiteson</t>
-  </si>
-  <si>
-    <t>Shen, Jiayi</t>
-  </si>
-  <si>
-    <t>Smith, Sarah Taylor</t>
-  </si>
-  <si>
-    <t>Sousa, Rachel Sylvia</t>
   </si>
   <si>
     <t>Wang, Harold Zhaokun</t>
@@ -660,13 +660,19 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -674,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -685,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -693,10 +699,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -706,19 +709,13 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -726,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -734,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -745,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -753,7 +750,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -805,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -816,7 +816,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -824,7 +827,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -832,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -840,10 +846,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -851,10 +854,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -873,7 +873,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,10 +892,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +914,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -944,10 +944,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -955,10 +952,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -966,7 +963,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -974,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -982,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -993,10 +993,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1004,10 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1015,10 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1026,7 +1020,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1034,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1053,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1067,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1078,10 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1089,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1100,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1111,10 +1105,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1122,10 +1116,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1133,10 +1124,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1144,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1155,7 +1143,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1163,7 +1154,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1171,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1179,7 +1173,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1198,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1212,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1220,7 +1217,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1228,10 +1228,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1261,7 +1261,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1269,10 +1272,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1280,7 +1280,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1288,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1296,10 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1351,10 +1351,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1362,7 +1359,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1372,19 +1372,13 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1392,10 +1386,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1403,7 +1394,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1411,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1422,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1430,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1441,7 +1435,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1449,7 +1446,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1457,7 +1454,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1479,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1490,7 +1490,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1500,16 +1503,16 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1517,10 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1528,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1544,7 +1544,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1552,10 +1555,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1563,10 +1566,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1574,10 +1577,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1585,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1593,10 +1596,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1618,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1648,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1656,7 +1656,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1664,10 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1683,7 +1683,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1691,10 +1694,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1702,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1713,10 +1716,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1724,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1732,10 +1735,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1757,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1768,10 +1768,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1779,7 +1776,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1787,7 +1787,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1795,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1806,7 +1809,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1816,19 +1822,16 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1836,10 +1839,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1847,10 +1850,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1858,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1866,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1874,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1899,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1907,7 +1910,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1915,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1923,10 +1929,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1934,10 +1937,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1945,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1956,7 +1959,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1964,7 +1970,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1972,10 +1981,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1983,7 +1989,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1991,10 +2000,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2002,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2010,10 +2016,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2041,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2046,7 +2052,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2054,10 +2063,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2065,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2076,7 +2082,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2084,10 +2093,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2095,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2103,10 +2109,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2114,7 +2120,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2122,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2130,10 +2139,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2147,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,10 +2155,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2180,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2185,10 +2191,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2196,10 +2199,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2207,7 +2207,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2218,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2226,7 +2229,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2234,7 +2237,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2242,7 +2248,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2250,10 +2259,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2261,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2272,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2283,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2291,10 +2297,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2327,7 +2330,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2335,10 +2341,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2346,10 +2352,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2357,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2365,10 +2368,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2376,10 +2376,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2387,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2398,7 +2395,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2406,10 +2406,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2417,7 +2417,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2425,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2433,7 +2436,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2466,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2477,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2485,10 +2488,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2496,10 +2499,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2507,7 +2507,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2515,10 +2518,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2526,10 +2529,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2537,7 +2540,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2548,10 +2551,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2559,10 +2562,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2570,7 +2573,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2578,7 +2581,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2617,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2619,10 +2628,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2630,10 +2636,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2641,10 +2647,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2652,7 +2658,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2660,7 +2669,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2670,13 +2682,19 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2684,10 +2702,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2695,10 +2710,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2706,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2714,10 +2726,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2758,10 +2767,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2769,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2780,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2791,10 +2800,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2802,7 +2808,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2810,10 +2819,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2821,7 +2830,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2829,10 +2841,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2840,7 +2852,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2848,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2856,7 +2871,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2889,10 +2907,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2900,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2908,10 +2923,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2919,10 +2931,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2930,7 +2942,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2938,7 +2953,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2946,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2954,10 +2972,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2965,7 +2983,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2976,10 +2994,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2987,7 +3005,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2995,7 +3013,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3028,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3036,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3044,10 +3062,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3055,7 +3073,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3063,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -3074,10 +3092,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3085,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3096,10 +3111,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3107,10 +3122,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3118,7 +3133,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3126,7 +3144,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3134,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3167,10 +3185,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3178,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3186,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3194,10 +3209,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3205,7 +3217,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3213,7 +3228,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3221,10 +3239,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3232,10 +3250,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3243,7 +3261,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -3254,7 +3272,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3262,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3270,10 +3288,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3306,10 +3324,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3317,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3328,10 +3343,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3339,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3347,7 +3362,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3355,10 +3370,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3366,10 +3381,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3392,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,10 +3400,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3396,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -3407,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3415,10 +3427,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3452,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3451,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3459,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3470,10 +3482,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3481,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -3492,10 +3504,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3503,10 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3514,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3525,7 +3531,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3533,7 +3542,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3541,10 +3553,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3552,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3560,10 +3569,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3604,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3615,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3623,7 +3632,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3631,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -3642,10 +3654,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3653,10 +3662,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3664,10 +3673,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3675,10 +3681,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3686,10 +3689,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3697,7 +3700,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3705,7 +3708,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -3730,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3741,7 +3744,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3749,10 +3755,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3760,10 +3763,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3771,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -3782,10 +3785,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3793,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3801,7 +3804,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3809,10 +3815,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3820,7 +3826,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3828,10 +3837,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3839,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3847,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3875,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3880,10 +3886,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3891,7 +3897,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3899,10 +3908,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3910,10 +3919,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3921,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3929,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -3940,10 +3946,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3951,10 +3954,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3981,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3989,10 +3989,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4027,16 +4027,16 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4044,7 +4044,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4052,7 +4055,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -4063,10 +4066,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4074,10 +4074,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4085,10 +4082,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4096,7 +4090,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -4107,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4115,7 +4109,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4123,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4131,10 +4128,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4167,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4178,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -4189,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -4200,7 +4197,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -4219,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4227,10 +4227,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4257,10 +4257,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4268,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4276,7 +4273,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
